--- a/Matrice_croisee_normes_27001-NIST-IEC62443.xlsx
+++ b/Matrice_croisee_normes_27001-NIST-IEC62443.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cours\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0E3A9A-DF92-4F1A-93D8-A05FE7489717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28CA8FB-B070-40B3-9A9D-F36ADB123E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6665DD32-BD53-4D4E-888D-8639454D0A9D}"/>
   </bookViews>
@@ -1593,169 +1593,6 @@
     <t>To implement / To do</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Ex 1:  Maintain inventories for all types of hardware, including IT, IoT, OT, and mobile devices
-Ex 2:  Constantly monitor networks to detect new hardware and automatically update inventories
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FreshService</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Online uniquement /!\
-Manque :  Accès et contrôle à distance, Gestion des capacités &amp; Suivi des serveurs
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>JIRA Service Management :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-Manque :  Accès et contrôle à distance &amp; Suivi des serveurs 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Splunk Enterprise :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Manque : Aucun
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ex1:  Maintain inventories for all types of software and services, including commercial-off-the-shelf, open-source, custom applications, API services, and cloud-based applications and services 
-Ex2:  Constantly monitor all platforms, including containers and virtual machines, for software and service inventory changes
-Ex3:  Maintain an inventory of the organization’s systems
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FreshService :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Online  /!\
-Missing :  Distant access &amp; control, capacity gestion and server monitoring
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">JIRA Service Management : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Missing :  Distant access &amp; control and server monitoring 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Splunk Enterprise :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Missing : None
-Add SCCM for DevOps purpose
----
-User formations
-</t>
-    </r>
-  </si>
-  <si>
     <t>Ex1:  Maintain baselines of communication and data flows within the organization’s wired and wireless networks 
 Ex2:  Maintain baselines of communication and data flows between the organization and third parties 
 Ex3: Maintain baselines of communication and data flows for the organization’s infrastructure-as-a-service (IaaS) usage
@@ -2331,12 +2168,25 @@
 Ex2:  Review key risk indicators (KRIs) to identify risks the organization faces, including likelihood and potential impact
 Ex3:  Collect and communicate metrics on cybersecurity risk management with senior leadership</t>
   </si>
+  <si>
+    <t xml:space="preserve">Ex1:  Maintain inventories for all types of software and services, including commercial-off-the-shelf, open-source, custom applications, API services, and cloud-based applications and services 
+Ex2:  Constantly monitor all platforms, including containers and virtual machines, for software and service inventory changes
+Ex3:  Maintain an inventory of the organization’s systems
+---
+User formations
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ex 1:  Maintain inventories for all types of hardware, including IT, IoT, OT, and mobile devices
+Ex 2:  Constantly monitor networks to detect new hardware and automatically update inventories
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2365,13 +2215,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -2679,37 +2522,37 @@
     <xf numFmtId="49" fontId="1" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3156,24 +2999,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74C9FBE-65B3-41FA-A06A-606078CA751D}">
   <dimension ref="A1:H286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CB17" sqref="CB17"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="7" style="17" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="18" customWidth="1"/>
-    <col min="7" max="7" width="35.5703125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="16.875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="35.625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="22.625" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="11.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="20" customFormat="1" ht="15.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3197,18 +3040,18 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="99.75">
       <c r="A2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="48" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>361</v>
+        <v>466</v>
       </c>
       <c r="E2" s="40"/>
       <c r="F2" s="21" t="s">
@@ -3221,16 +3064,16 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="378" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="178.5">
       <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="32" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>362</v>
+        <v>465</v>
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="22" t="s">
@@ -3243,16 +3086,16 @@
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="190.5" customHeight="1">
       <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="21" t="s">
@@ -3265,16 +3108,16 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="108" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="102">
       <c r="A5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="52"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="32" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E5" s="41"/>
       <c r="F5" s="22" t="s">
@@ -3287,16 +3130,16 @@
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="84.95" customHeight="1">
       <c r="A6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="52"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="21" t="s">
@@ -3309,32 +3152,32 @@
         <v>280</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="127.5">
       <c r="A7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="32" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E7" s="42"/>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
       <c r="H7" s="35"/>
     </row>
-    <row r="8" spans="1:8" ht="375" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="356.25">
       <c r="A8" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="52"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="32" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="24" t="s">
@@ -3347,18 +3190,18 @@
         <v>335</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="288.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="288.95" customHeight="1">
       <c r="A9" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="48" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="25" t="s">
@@ -3371,16 +3214,16 @@
         <v>281</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="182.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="182.1" customHeight="1">
       <c r="A10" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="52"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="32" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="21" t="s">
@@ -3393,16 +3236,16 @@
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="110.45" customHeight="1">
       <c r="A11" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="52"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="32" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E11" s="40"/>
       <c r="F11" s="25" t="s">
@@ -3415,16 +3258,16 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="183.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="183.95" customHeight="1">
       <c r="A12" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="52"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="32" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="21" t="s">
@@ -3437,16 +3280,16 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="90.95" customHeight="1">
       <c r="A13" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="52"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="32" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="25" t="s">
@@ -3459,16 +3302,16 @@
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="189" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="178.5">
       <c r="A14" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="52"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="32" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="21" t="s">
@@ -3481,16 +3324,16 @@
         <v>286</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="409.5" customHeight="1">
       <c r="A15" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="52"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="32" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="25" t="s">
@@ -3503,32 +3346,32 @@
         <v>336</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="108" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="89.25">
       <c r="A16" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="52"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="32" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E16" s="41"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="36"/>
     </row>
-    <row r="17" spans="1:8" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="103.5" customHeight="1">
       <c r="A17" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="52"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="25" t="s">
@@ -3541,34 +3384,34 @@
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="121.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="114.75">
       <c r="A18" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="48" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="36"/>
     </row>
-    <row r="19" spans="1:8" ht="315" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="299.25">
       <c r="A19" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="52"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="32" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="23" t="s">
@@ -3581,16 +3424,16 @@
         <v>337</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="176.25" customHeight="1">
       <c r="A20" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="52"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E20" s="41"/>
       <c r="F20" s="21" t="s">
@@ -3603,16 +3446,16 @@
         <v>288</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="255">
       <c r="A21" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="52"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E21" s="43"/>
       <c r="F21" s="23" t="s">
@@ -3625,18 +3468,18 @@
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="251.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="251.1" customHeight="1">
       <c r="A22" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="49" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="38" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E22" s="41"/>
       <c r="F22" s="21" t="s">
@@ -3649,16 +3492,16 @@
         <v>338</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="287.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="287.10000000000002" customHeight="1">
       <c r="A23" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="53"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="38" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E23" s="43"/>
       <c r="F23" s="23" t="s">
@@ -3671,16 +3514,16 @@
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="409.5">
       <c r="A24" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="53"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="38" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="21" t="s">
@@ -3693,16 +3536,16 @@
         <v>340</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="127.5">
       <c r="A25" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="53"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="38" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E25" s="42"/>
       <c r="F25" s="23"/>
@@ -3711,16 +3554,16 @@
         <v>290</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="409.5" customHeight="1">
       <c r="A26" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="53"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="38" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E26" s="41"/>
       <c r="F26" s="21" t="s">
@@ -3733,16 +3576,16 @@
         <v>341</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="409.5">
       <c r="A27" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="53"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="38" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E27" s="42"/>
       <c r="F27" s="23" t="s">
@@ -3755,18 +3598,18 @@
         <v>342</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="246" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="246" customHeight="1">
       <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="49" t="s">
         <v>35</v>
       </c>
       <c r="C28" s="38" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E28" s="41"/>
       <c r="F28" s="21" t="s">
@@ -3779,16 +3622,16 @@
         <v>291</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="254.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="254.25" customHeight="1">
       <c r="A29" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="53"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="38" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E29" s="42"/>
       <c r="F29" s="25" t="s">
@@ -3801,18 +3644,18 @@
         <v>292</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="162" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="156.75">
       <c r="A30" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="49" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="38" t="s">
         <v>39</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E30" s="41"/>
       <c r="F30" s="21" t="s">
@@ -3825,16 +3668,16 @@
         <v>293</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="242.25">
       <c r="A31" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="53"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="38" t="s">
         <v>40</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E31" s="42"/>
       <c r="F31" s="25" t="s">
@@ -3847,16 +3690,16 @@
         <v>343</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="202.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="191.25">
       <c r="A32" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="53"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="38" t="s">
         <v>41</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E32" s="41"/>
       <c r="F32" s="21" t="s">
@@ -3869,16 +3712,16 @@
         <v>344</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="71.25">
       <c r="A33" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="53"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="38" t="s">
         <v>42</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E33" s="43"/>
       <c r="F33" s="25" t="s">
@@ -3891,16 +3734,16 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="140.25">
       <c r="A34" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="53"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="38" t="s">
         <v>43</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E34" s="40"/>
       <c r="F34" s="21" t="s">
@@ -3913,18 +3756,18 @@
         <v>345</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="409.5" customHeight="1">
       <c r="A35" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="50" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="38" t="s">
         <v>45</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E35" s="42"/>
       <c r="F35" s="25" t="s">
@@ -3937,16 +3780,16 @@
         <v>346</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="339" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="339" customHeight="1">
       <c r="A36" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="54"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="38" t="s">
         <v>46</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E36" s="40"/>
       <c r="F36" s="21" t="s">
@@ -3959,16 +3802,16 @@
         <v>347</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="108" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="102">
       <c r="A37" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="54"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="38" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E37" s="42"/>
       <c r="F37" s="26" t="s">
@@ -3981,16 +3824,16 @@
         <v>348</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="270.75">
       <c r="A38" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="54"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="38" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E38" s="41"/>
       <c r="F38" s="21" t="s">
@@ -4003,50 +3846,50 @@
         <v>349</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="162" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="153">
       <c r="A39" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="54"/>
+      <c r="B39" s="50"/>
       <c r="C39" s="38" t="s">
         <v>49</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E39" s="42"/>
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
       <c r="H39" s="35"/>
     </row>
-    <row r="40" spans="1:8" ht="108" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="102">
       <c r="A40" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="54"/>
+      <c r="B40" s="50"/>
       <c r="C40" s="38" t="s">
         <v>50</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E40" s="41"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
       <c r="H40" s="36"/>
     </row>
-    <row r="41" spans="1:8" ht="249.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="249.6" customHeight="1">
       <c r="A41" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="49" t="s">
         <v>51</v>
       </c>
       <c r="C41" s="38" t="s">
         <v>52</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E41" s="43"/>
       <c r="F41" s="27" t="s">
@@ -4059,16 +3902,16 @@
         <v>350</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="177.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="177.6" customHeight="1">
       <c r="A42" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="53"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="38" t="s">
         <v>53</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E42" s="40"/>
       <c r="F42" s="21" t="s">
@@ -4081,16 +3924,16 @@
         <v>351</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="171.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="171.95" customHeight="1">
       <c r="A43" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="53"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="38" t="s">
         <v>54</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E43" s="43"/>
       <c r="F43" s="25" t="s">
@@ -4103,16 +3946,16 @@
         <v>352</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="89.45" customHeight="1">
       <c r="A44" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="53"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="38" t="s">
         <v>55</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E44" s="41"/>
       <c r="F44" s="21" t="s">
@@ -4125,18 +3968,18 @@
         <v>353</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="213.75">
       <c r="A45" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="51" t="s">
         <v>57</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E45" s="42"/>
       <c r="F45" s="23" t="s">
@@ -4149,16 +3992,16 @@
         <v>354</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="162" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="153">
       <c r="A46" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="55"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E46" s="41"/>
       <c r="F46" s="21" t="s">
@@ -4171,16 +4014,16 @@
         <v>296</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="128.25">
       <c r="A47" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="55"/>
+      <c r="B47" s="51"/>
       <c r="C47" s="11" t="s">
         <v>60</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E47" s="42"/>
       <c r="F47" s="23" t="s">
@@ -4193,16 +4036,16 @@
         <v>355</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="128.25">
       <c r="A48" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="55"/>
+      <c r="B48" s="51"/>
       <c r="C48" s="11" t="s">
         <v>61</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E48" s="41"/>
       <c r="F48" s="21" t="s">
@@ -4215,16 +4058,16 @@
         <v>356</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="409.5">
       <c r="A49" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="55"/>
+      <c r="B49" s="51"/>
       <c r="C49" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E49" s="43"/>
       <c r="F49" s="23" t="s">
@@ -4237,18 +4080,18 @@
         <v>357</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="162" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="153">
       <c r="A50" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="52" t="s">
         <v>63</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>64</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E50" s="41"/>
       <c r="F50" s="21" t="s">
@@ -4261,16 +4104,16 @@
         <v>298</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="108" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="102">
       <c r="A51" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="56"/>
+      <c r="B51" s="52"/>
       <c r="C51" s="11" t="s">
         <v>65</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E51" s="43"/>
       <c r="F51" s="25" t="s">
@@ -4283,16 +4126,16 @@
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="114">
       <c r="A52" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="56"/>
+      <c r="B52" s="52"/>
       <c r="C52" s="11" t="s">
         <v>66</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E52" s="40"/>
       <c r="F52" s="21" t="s">
@@ -4305,16 +4148,16 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="162" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="153">
       <c r="A53" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="56"/>
+      <c r="B53" s="52"/>
       <c r="C53" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E53" s="43"/>
       <c r="F53" s="23" t="s">
@@ -4327,16 +4170,16 @@
         <v>301</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="121.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="114.75">
       <c r="A54" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="56"/>
+      <c r="B54" s="52"/>
       <c r="C54" s="11" t="s">
         <v>68</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E54" s="41"/>
       <c r="F54" s="21"/>
@@ -4345,16 +4188,16 @@
         <v>302</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="63.75">
       <c r="A55" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="56"/>
+      <c r="B55" s="52"/>
       <c r="C55" s="11" t="s">
         <v>69</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E55" s="43"/>
       <c r="F55" s="23" t="s">
@@ -4367,18 +4210,18 @@
         <v>303</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="127.5">
       <c r="A56" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="57" t="s">
+      <c r="B56" s="53" t="s">
         <v>71</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>72</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E56" s="41"/>
       <c r="F56" s="21" t="s">
@@ -4391,16 +4234,16 @@
         <v>304</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="142.5">
       <c r="A57" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="57"/>
+      <c r="B57" s="53"/>
       <c r="C57" s="13" t="s">
         <v>73</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E57" s="42"/>
       <c r="F57" s="23" t="s">
@@ -4413,16 +4256,16 @@
         <v>305</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="121.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="114.75">
       <c r="A58" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="57"/>
+      <c r="B58" s="53"/>
       <c r="C58" s="13" t="s">
         <v>74</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E58" s="41"/>
       <c r="F58" s="21" t="s">
@@ -4435,16 +4278,16 @@
         <v>307</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="99.75">
       <c r="A59" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="57"/>
+      <c r="B59" s="53"/>
       <c r="C59" s="13" t="s">
         <v>75</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E59" s="42"/>
       <c r="F59" s="23" t="s">
@@ -4457,16 +4300,16 @@
         <v>308</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="85.5">
       <c r="A60" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="57"/>
+      <c r="B60" s="53"/>
       <c r="C60" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E60" s="41"/>
       <c r="F60" s="21"/>
@@ -4475,18 +4318,18 @@
         <v>309</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="127.5">
       <c r="A61" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B61" s="49" t="s">
+      <c r="B61" s="47" t="s">
         <v>77</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>78</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E61" s="42"/>
       <c r="F61" s="25" t="s">
@@ -4499,16 +4342,16 @@
         <v>310</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="99.75">
       <c r="A62" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="49"/>
+      <c r="B62" s="47"/>
       <c r="C62" s="13" t="s">
         <v>79</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E62" s="41"/>
       <c r="F62" s="21" t="s">
@@ -4521,16 +4364,16 @@
         <v>310</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="42.75">
       <c r="A63" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="49"/>
+      <c r="B63" s="47"/>
       <c r="C63" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E63" s="43"/>
       <c r="F63" s="23"/>
@@ -4539,16 +4382,16 @@
         <v>311</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="63.75">
       <c r="A64" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="49"/>
+      <c r="B64" s="47"/>
       <c r="C64" s="13" t="s">
         <v>81</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E64" s="40"/>
       <c r="F64" s="21"/>
@@ -4557,18 +4400,18 @@
         <v>307</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="122.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="122.1" customHeight="1">
       <c r="A65" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="49" t="s">
+      <c r="B65" s="47" t="s">
         <v>82</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E65" s="42"/>
       <c r="F65" s="23" t="s">
@@ -4581,16 +4424,16 @@
         <v>312</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="243" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="229.5">
       <c r="A66" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="49"/>
+      <c r="B66" s="47"/>
       <c r="C66" s="13" t="s">
         <v>84</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E66" s="41"/>
       <c r="F66" s="21" t="s">
@@ -4603,18 +4446,18 @@
         <v>313</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="189" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="165.75">
       <c r="A67" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="49" t="s">
+      <c r="B67" s="47" t="s">
         <v>85</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>86</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E67" s="42"/>
       <c r="F67" s="25" t="s">
@@ -4627,16 +4470,16 @@
         <v>314</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="121.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="114.75">
       <c r="A68" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="49"/>
+      <c r="B68" s="47"/>
       <c r="C68" s="13" t="s">
         <v>87</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E68" s="40"/>
       <c r="F68" s="21" t="s">
@@ -4649,18 +4492,18 @@
         <v>315</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="81" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="76.5">
       <c r="A69" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="50" t="s">
+      <c r="B69" s="56" t="s">
         <v>89</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>90</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E69" s="42"/>
       <c r="F69" s="25" t="s">
@@ -4673,16 +4516,16 @@
         <v>316</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="83.45" customHeight="1">
       <c r="A70" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B70" s="50"/>
+      <c r="B70" s="56"/>
       <c r="C70" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E70" s="41"/>
       <c r="F70" s="21"/>
@@ -4691,16 +4534,16 @@
         <v>317</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="66.95" customHeight="1">
       <c r="A71" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B71" s="50"/>
+      <c r="B71" s="56"/>
       <c r="C71" s="15" t="s">
         <v>92</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E71" s="42"/>
       <c r="F71" s="23" t="s">
@@ -4711,32 +4554,32 @@
         <v>319</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="118.5" customHeight="1">
       <c r="A72" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B72" s="50"/>
+      <c r="B72" s="56"/>
       <c r="C72" s="15" t="s">
         <v>93</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E72" s="41"/>
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
       <c r="H72" s="36"/>
     </row>
-    <row r="73" spans="1:8" ht="117.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="117.95" customHeight="1">
       <c r="A73" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B73" s="50"/>
+      <c r="B73" s="56"/>
       <c r="C73" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E73" s="42"/>
       <c r="F73" s="23"/>
@@ -4745,16 +4588,16 @@
         <v>320</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="54" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="51">
       <c r="A74" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B74" s="50"/>
+      <c r="B74" s="56"/>
       <c r="C74" s="15" t="s">
         <v>95</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E74" s="41"/>
       <c r="F74" s="21"/>
@@ -4763,18 +4606,18 @@
         <v>321</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="162" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="140.25">
       <c r="A75" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B75" s="51" t="s">
+      <c r="B75" s="57" t="s">
         <v>96</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>97</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E75" s="42"/>
       <c r="F75" s="26" t="s">
@@ -4785,16 +4628,16 @@
       </c>
       <c r="H75" s="35"/>
     </row>
-    <row r="76" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="63.75">
       <c r="A76" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B76" s="51"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="15" t="s">
         <v>98</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E76" s="41"/>
       <c r="F76" s="21" t="s">
@@ -4805,18 +4648,18 @@
       </c>
       <c r="H76" s="36"/>
     </row>
-    <row r="77" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="71.25">
       <c r="A77" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B77" s="48" t="s">
+      <c r="B77" s="55" t="s">
         <v>100</v>
       </c>
       <c r="C77" s="46" t="s">
         <v>101</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E77" s="42"/>
       <c r="F77" s="26" t="s">
@@ -4829,32 +4672,32 @@
         <v>322</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="150.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="150.94999999999999" customHeight="1">
       <c r="A78" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B78" s="48"/>
+      <c r="B78" s="55"/>
       <c r="C78" s="46" t="s">
         <v>102</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E78" s="41"/>
       <c r="F78" s="21"/>
       <c r="G78" s="21"/>
       <c r="H78" s="36"/>
     </row>
-    <row r="79" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="171">
       <c r="A79" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B79" s="48"/>
+      <c r="B79" s="55"/>
       <c r="C79" s="46" t="s">
         <v>103</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E79" s="42"/>
       <c r="F79" s="23" t="s">
@@ -4867,16 +4710,16 @@
         <v>324</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="213.75">
       <c r="A80" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B80" s="48"/>
+      <c r="B80" s="55"/>
       <c r="C80" s="46" t="s">
         <v>104</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E80" s="41"/>
       <c r="F80" s="21" t="s">
@@ -4889,16 +4732,16 @@
         <v>358</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="242.25">
       <c r="A81" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B81" s="48"/>
+      <c r="B81" s="55"/>
       <c r="C81" s="46" t="s">
         <v>105</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E81" s="42"/>
       <c r="F81" s="23" t="s">
@@ -4911,18 +4754,18 @@
         <v>359</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="127.5">
       <c r="A82" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B82" s="48" t="s">
+      <c r="B82" s="55" t="s">
         <v>106</v>
       </c>
       <c r="C82" s="46" t="s">
         <v>107</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E82" s="41"/>
       <c r="F82" s="21" t="s">
@@ -4935,16 +4778,16 @@
         <v>325</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="108" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="102">
       <c r="A83" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B83" s="48"/>
+      <c r="B83" s="55"/>
       <c r="C83" s="46" t="s">
         <v>108</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E83" s="42"/>
       <c r="F83" s="23" t="s">
@@ -4957,16 +4800,16 @@
         <v>326</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="65.099999999999994" customHeight="1">
       <c r="A84" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B84" s="48"/>
+      <c r="B84" s="55"/>
       <c r="C84" s="46" t="s">
         <v>109</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E84" s="41"/>
       <c r="F84" s="21" t="s">
@@ -4979,81 +4822,81 @@
         <v>327</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="121.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="114.75">
       <c r="A85" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B85" s="47"/>
+      <c r="B85" s="54"/>
       <c r="C85" s="46" t="s">
         <v>110</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E85" s="44"/>
       <c r="F85" s="23"/>
       <c r="G85" s="23"/>
       <c r="H85" s="35"/>
     </row>
-    <row r="86" spans="1:8" ht="108" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="102">
       <c r="A86" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B86" s="47"/>
+      <c r="B86" s="54"/>
       <c r="C86" s="46" t="s">
         <v>111</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F86" s="21"/>
       <c r="G86" s="21"/>
       <c r="H86" s="36"/>
     </row>
-    <row r="87" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="135" customHeight="1">
       <c r="A87" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B87" s="47"/>
+      <c r="B87" s="54"/>
       <c r="C87" s="46" t="s">
         <v>112</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E87" s="44"/>
       <c r="F87" s="23"/>
       <c r="G87" s="23"/>
       <c r="H87" s="35"/>
     </row>
-    <row r="88" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="102" customHeight="1">
       <c r="A88" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B88" s="47"/>
+      <c r="B88" s="54"/>
       <c r="C88" s="46" t="s">
         <v>113</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="21"/>
       <c r="G88" s="21"/>
       <c r="H88" s="36"/>
     </row>
-    <row r="89" spans="1:8" ht="189" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="178.5">
       <c r="A89" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B89" s="47" t="s">
+      <c r="B89" s="54" t="s">
         <v>114</v>
       </c>
       <c r="C89" s="46" t="s">
         <v>115</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E89" s="44"/>
       <c r="F89" s="23" t="s">
@@ -5066,16 +4909,16 @@
         <v>328</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="405" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="369.75">
       <c r="A90" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B90" s="47"/>
+      <c r="B90" s="54"/>
       <c r="C90" s="46" t="s">
         <v>116</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="28" t="s">
@@ -5088,16 +4931,16 @@
         <v>329</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="140.25">
       <c r="A91" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B91" s="47"/>
+      <c r="B91" s="54"/>
       <c r="C91" s="46" t="s">
         <v>117</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E91" s="44"/>
       <c r="F91" s="23" t="s">
@@ -5110,16 +4953,16 @@
         <v>330</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="89.25">
       <c r="A92" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B92" s="47"/>
+      <c r="B92" s="54"/>
       <c r="C92" s="46" t="s">
         <v>118</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="21"/>
@@ -5128,16 +4971,16 @@
         <v>331</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="409.5">
       <c r="A93" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B93" s="48"/>
+      <c r="B93" s="55"/>
       <c r="C93" s="46" t="s">
         <v>119</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E93" s="42"/>
       <c r="F93" s="23" t="s">
@@ -5150,32 +4993,32 @@
         <v>309</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="162" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="153">
       <c r="A94" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B94" s="48"/>
+      <c r="B94" s="55"/>
       <c r="C94" s="46" t="s">
         <v>120</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E94" s="41"/>
       <c r="F94" s="21"/>
       <c r="G94" s="30"/>
       <c r="H94" s="36"/>
     </row>
-    <row r="95" spans="1:8" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="216.75">
       <c r="A95" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B95" s="48"/>
+      <c r="B95" s="55"/>
       <c r="C95" s="46" t="s">
         <v>121</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E95" s="42"/>
       <c r="F95" s="23" t="s">
@@ -5188,16 +5031,16 @@
         <v>331</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="202.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="178.5">
       <c r="A96" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B96" s="48"/>
+      <c r="B96" s="55"/>
       <c r="C96" s="46" t="s">
         <v>122</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E96" s="41"/>
       <c r="F96" s="21" t="s">
@@ -5210,50 +5053,50 @@
         <v>332</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="216" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="191.25">
       <c r="A97" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B97" s="48"/>
+      <c r="B97" s="55"/>
       <c r="C97" s="46" t="s">
         <v>123</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E97" s="42"/>
       <c r="F97" s="23"/>
       <c r="G97" s="29"/>
       <c r="H97" s="35"/>
     </row>
-    <row r="98" spans="1:8" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="242.25">
       <c r="A98" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="48"/>
+      <c r="B98" s="55"/>
       <c r="C98" s="46" t="s">
         <v>124</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E98" s="41"/>
       <c r="F98" s="21"/>
       <c r="G98" s="30"/>
       <c r="H98" s="36"/>
     </row>
-    <row r="99" spans="1:8" ht="189" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="178.5">
       <c r="A99" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B99" s="48" t="s">
+      <c r="B99" s="55" t="s">
         <v>125</v>
       </c>
       <c r="C99" s="46" t="s">
         <v>126</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E99" s="42"/>
       <c r="F99" s="23"/>
@@ -5262,16 +5105,16 @@
         <v>329</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="202.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="191.25">
       <c r="A100" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B100" s="48"/>
+      <c r="B100" s="55"/>
       <c r="C100" s="46" t="s">
         <v>127</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E100" s="41"/>
       <c r="F100" s="21" t="s">
@@ -5284,16 +5127,16 @@
         <v>329</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="121.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="114.75">
       <c r="A101" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B101" s="48"/>
+      <c r="B101" s="55"/>
       <c r="C101" s="46" t="s">
         <v>128</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E101" s="42"/>
       <c r="F101" s="23"/>
@@ -5302,16 +5145,16 @@
         <v>329</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="213.75">
       <c r="A102" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B102" s="48"/>
+      <c r="B102" s="55"/>
       <c r="C102" s="46" t="s">
         <v>129</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E102" s="41"/>
       <c r="F102" s="21" t="s">
@@ -5324,18 +5167,18 @@
         <v>329</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="202.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="191.25">
       <c r="A103" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B103" s="48" t="s">
+      <c r="B103" s="55" t="s">
         <v>130</v>
       </c>
       <c r="C103" s="46" t="s">
         <v>131</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E103" s="42"/>
       <c r="F103" s="23" t="s">
@@ -5348,16 +5191,16 @@
         <v>333</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="175.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="165.75">
       <c r="A104" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B104" s="48"/>
+      <c r="B104" s="55"/>
       <c r="C104" s="46" t="s">
         <v>132</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E104" s="41"/>
       <c r="F104" s="21" t="s">
@@ -5370,80 +5213,90 @@
         <v>333</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="63.75">
       <c r="A105" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B105" s="48" t="s">
+      <c r="B105" s="55" t="s">
         <v>133</v>
       </c>
       <c r="C105" s="46" t="s">
         <v>134</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E105" s="42"/>
       <c r="F105" s="23"/>
       <c r="G105" s="29"/>
       <c r="H105" s="35"/>
     </row>
-    <row r="106" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="89.25">
       <c r="A106" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B106" s="48"/>
+      <c r="B106" s="55"/>
       <c r="C106" s="46" t="s">
         <v>135</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E106" s="41"/>
       <c r="F106" s="21"/>
       <c r="G106" s="30"/>
       <c r="H106" s="36"/>
     </row>
-    <row r="107" spans="1:8" ht="108" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="102">
       <c r="A107" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B107" s="48"/>
+      <c r="B107" s="55"/>
       <c r="C107" s="46" t="s">
         <v>136</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E107" s="42"/>
       <c r="F107" s="23"/>
       <c r="G107" s="29"/>
       <c r="H107" s="35"/>
     </row>
-    <row r="112" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="57.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="57.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="57.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="57.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:8" ht="57.95" customHeight="1"/>
+    <row r="119" ht="57.95" customHeight="1"/>
+    <row r="129" ht="57.95" customHeight="1"/>
+    <row r="135" ht="43.5" customHeight="1"/>
+    <row r="138" ht="72.599999999999994" customHeight="1"/>
+    <row r="172" ht="43.5" customHeight="1"/>
+    <row r="176" ht="57.95" customHeight="1"/>
+    <row r="182" ht="29.1" customHeight="1"/>
+    <row r="189" ht="43.5" customHeight="1"/>
+    <row r="194" ht="43.5" customHeight="1"/>
+    <row r="205" ht="29.1" customHeight="1"/>
+    <row r="219" ht="29.1" customHeight="1"/>
+    <row r="224" ht="57.95" customHeight="1"/>
+    <row r="230" ht="43.5" customHeight="1"/>
+    <row r="234" ht="43.5" customHeight="1"/>
+    <row r="243" ht="43.5" customHeight="1"/>
+    <row r="251" ht="29.1" customHeight="1"/>
+    <row r="262" ht="29.1" customHeight="1"/>
+    <row r="270" ht="43.5" customHeight="1"/>
+    <row r="275" ht="29.1" customHeight="1"/>
+    <row r="280" ht="43.5" customHeight="1"/>
+    <row r="286" ht="29.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B89:B98"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B82:B88"/>
     <mergeCell ref="B61:B64"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="B9:B17"/>
@@ -5456,16 +5309,6 @@
     <mergeCell ref="B45:B49"/>
     <mergeCell ref="B50:B55"/>
     <mergeCell ref="B56:B60"/>
-    <mergeCell ref="B89:B98"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B82:B88"/>
   </mergeCells>
   <conditionalFormatting sqref="A36:A44 A46:A49 A51:A60 A62:A64 A66 D1:D76 E1:XFD7">
     <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
